--- a/Epsitec.Cresus/App.Aider/Samples/EERV Morges/Ids.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Morges/Ids.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="15615" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>_id</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Morges</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -442,15 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +475,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -489,8 +498,11 @@
       <c r="F2" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -498,7 +510,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -506,7 +518,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -514,7 +526,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -522,7 +534,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -530,7 +542,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>
